--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renwe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santa\Desktop\2400\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBB065-67EB-481C-A8F6-5C5DCF4123A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D44639-641F-44F8-8783-6F7BAD8AD7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postorderTraverse" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Empty Tree</t>
   </si>
   <si>
-    <t>Uninitialized Tree</t>
-  </si>
-  <si>
     <t>Tree 1</t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Actural</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -87,6 +78,18 @@
   </si>
   <si>
     <t>Tree3</t>
+  </si>
+  <si>
+    <t>EmptyTreeException</t>
+  </si>
+  <si>
+    <t>Empty TreeException</t>
+  </si>
+  <si>
+    <t>"B", "F", "D", "G", "H", "E", "C", "A"</t>
+  </si>
+  <si>
+    <t>"D", "C", "B", "A"</t>
   </si>
 </sst>
 </file>
@@ -146,15 +149,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>795020</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -182,8 +185,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="2562225"/>
-          <a:ext cx="2052320" cy="2204720"/>
+          <a:off x="0" y="2425065"/>
+          <a:ext cx="2073275" cy="2113280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -207,7 +210,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>795020</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
@@ -572,95 +575,122 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -669,50 +699,50 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -733,12 +763,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -759,57 +789,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -824,99 +854,117 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -926,6 +974,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100389DCF7BAC17014FB78821C6A2B91CF0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f4dac36db1757d7de220697bc83825a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74c7428d-5a72-4c33-ba81-831a64e83d50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91426d8abbe19ad2690cb0c5b15b15ef" ns2:_="">
     <xsd:import namespace="74c7428d-5a72-4c33-ba81-831a64e83d50"/>
@@ -1087,22 +1150,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98501C4-3F0A-47C4-B3DF-FCE987C26B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F184EA-E3AB-4B4B-8D30-EECFAA6B3DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B5F648-C037-4819-A6CC-4633489B3152}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1118,21 +1183,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F184EA-E3AB-4B4B-8D30-EECFAA6B3DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98501C4-3F0A-47C4-B3DF-FCE987C26B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santa\Desktop\2400\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D44639-641F-44F8-8783-6F7BAD8AD7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A43B4F1-A389-4FCC-AF65-1C4EE81E11FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postorderTraverse" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Empty Tree</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>"D", "C", "B", "A"</t>
+  </si>
+  <si>
+    <t>Tree 1, Node B</t>
+  </si>
+  <si>
+    <t>Tree 1, Node C</t>
+  </si>
+  <si>
+    <t>Tree 1, Node D</t>
   </si>
 </sst>
 </file>
@@ -574,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C966F8E-0D38-4A86-9539-70CCC7835CD1}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I1" sqref="I1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,9 +721,11 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -736,8 +747,17 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -762,8 +782,17 @@
       <c r="H2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -788,8 +817,17 @@
       <c r="H3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -797,17 +835,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -851,10 +889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F42ED2-49F9-48D6-B19B-97502496B248}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,9 +902,10 @@
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +918,17 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -896,8 +944,17 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -913,8 +970,17 @@
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -922,17 +988,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>7</v>
       </c>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santa\Desktop\2400\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A43B4F1-A389-4FCC-AF65-1C4EE81E11FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B2F7C-287F-48BA-A22C-EE81765B7B31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>Empty Tree</t>
   </si>
@@ -99,6 +99,27 @@
   </si>
   <si>
     <t>Tree 1, Node D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree 2, Node C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree 3, Node B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree 1, Node B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree 1, Node C </t>
+  </si>
+  <si>
+    <t>using  getNumberOfNodes_binaryNodeMethod()</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>using getHeight_binaryNodeMethod()</t>
   </si>
 </sst>
 </file>
@@ -708,7 +729,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,6 +848,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
@@ -892,17 +935,18 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -913,16 +957,16 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -980,6 +1024,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
@@ -1035,26 +1101,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100389DCF7BAC17014FB78821C6A2B91CF0" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f4dac36db1757d7de220697bc83825a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74c7428d-5a72-4c33-ba81-831a64e83d50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91426d8abbe19ad2690cb0c5b15b15ef" ns2:_="">
     <xsd:import namespace="74c7428d-5a72-4c33-ba81-831a64e83d50"/>
@@ -1216,24 +1268,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98501C4-3F0A-47C4-B3DF-FCE987C26B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F184EA-E3AB-4B4B-8D30-EECFAA6B3DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B5F648-C037-4819-A6CC-4633489B3152}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1249,4 +1299,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F184EA-E3AB-4B4B-8D30-EECFAA6B3DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98501C4-3F0A-47C4-B3DF-FCE987C26B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>